--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>523125.9222270816</v>
+        <v>521201.3186602238</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155035</v>
+        <v>3180051.965155034</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>38.19053515138876</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>37.42681674263682</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.09475084320955</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>211.2459596671186</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>160.1989433021659</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>160.1989433021658</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341.8733101690336</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>341.8733101690336</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="G5" t="n">
         <v>14.93452779272217</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.99524193240758</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3161961300435</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>341.8733101690336</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>286.1874838041621</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.491628011897032</v>
+        <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.61362792373492</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3706418758996</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9284209250621</v>
+        <v>92.77510394723542</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>247.193523752326</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>247.1935237523253</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>163.2962083791354</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>303.363495712791</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.53436060286468</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>65.11360015189892</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.16301885440537</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>30.29082169064366</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>30.70203588826205</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>271.1452395731351</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>24.07657827762171</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>29.11894700017322</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>222.2179949548704</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390849</v>
+        <v>83.69155244347857</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10.86101695904108</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094046</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>45.27194911804686</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800788</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.56326686094046</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557249</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937386</v>
+        <v>209.0514794581453</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
         <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>44.25903449440873</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557249</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809756</v>
+        <v>16.74048230624249</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.1553589816758</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877712</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555814</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U38" t="n">
         <v>182.9467051201603</v>
@@ -3563,10 +3563,10 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877712</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X38" t="n">
-        <v>301.5992105488284</v>
+        <v>301.5992105488275</v>
       </c>
       <c r="Y38" t="n">
         <v>318.1060485264129</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492309883</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555818</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
@@ -3992,10 +3992,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H44" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.1037832399832</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="C2" t="n">
-        <v>787.1037832399832</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1037832399832</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1037832399832</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F2" t="n">
-        <v>508.1578098032604</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>1066.049756676706</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="U2" t="n">
-        <v>1066.049756676706</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V2" t="n">
-        <v>1066.049756676706</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W2" t="n">
-        <v>1066.049756676706</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X2" t="n">
-        <v>787.1037832399832</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.1037832399832</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>470.5331851268659</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C3" t="n">
-        <v>296.0801558457389</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>296.0801558457389</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>136.8427008402834</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>136.8427008402834</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="M3" t="n">
-        <v>405.6478494291521</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112776</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606003</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>932.6220420606003</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>932.6220420606003</v>
+        <v>719.2422848210867</v>
       </c>
       <c r="V3" t="n">
-        <v>932.6220420606003</v>
+        <v>484.090176589344</v>
       </c>
       <c r="W3" t="n">
-        <v>678.3846853323987</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="X3" t="n">
-        <v>470.5331851268659</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y3" t="n">
-        <v>470.5331851268659</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="4">
@@ -4489,37 +4489,37 @@
         <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="V4" t="n">
         <v>37.1756025565036</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.9853452538002</v>
+        <v>733.0883982789653</v>
       </c>
       <c r="C5" t="n">
-        <v>422.9853452538002</v>
+        <v>733.0883982789653</v>
       </c>
       <c r="D5" t="n">
-        <v>77.65876932548349</v>
+        <v>387.7618223506491</v>
       </c>
       <c r="E5" t="n">
-        <v>77.65876932548349</v>
+        <v>387.7618223506491</v>
       </c>
       <c r="F5" t="n">
-        <v>70.71326857628002</v>
+        <v>42.43524642233292</v>
       </c>
       <c r="G5" t="n">
-        <v>55.62788696746974</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="H5" t="n">
-        <v>55.62788696746974</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082003</v>
+        <v>46.4588948808198</v>
       </c>
       <c r="K5" t="n">
-        <v>195.843181694346</v>
+        <v>195.8431816943455</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909784</v>
+        <v>433.4442264909777</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203067</v>
+        <v>714.4277151203058</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090379</v>
+        <v>985.3258128090366</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860207</v>
+        <v>1195.939566860206</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313932</v>
+        <v>1338.01915031393</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R5" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="S5" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="T5" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="U5" t="n">
-        <v>1113.638497110434</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="V5" t="n">
-        <v>1113.638497110434</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="W5" t="n">
-        <v>768.311921182117</v>
+        <v>1022.166664747816</v>
       </c>
       <c r="X5" t="n">
-        <v>768.311921182117</v>
+        <v>733.0883982789653</v>
       </c>
       <c r="Y5" t="n">
-        <v>768.311921182117</v>
+        <v>733.0883982789653</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.89696381543888</v>
+        <v>368.7797505363726</v>
       </c>
       <c r="C6" t="n">
-        <v>32.89696381543888</v>
+        <v>368.7797505363726</v>
       </c>
       <c r="D6" t="n">
-        <v>32.89696381543888</v>
+        <v>368.7797505363726</v>
       </c>
       <c r="E6" t="n">
-        <v>32.89696381543888</v>
+        <v>368.7797505363726</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89696381543888</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="G6" t="n">
-        <v>32.89696381543888</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="H6" t="n">
-        <v>27.34986481352269</v>
+        <v>110.7979738273963</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="K6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="L6" t="n">
-        <v>299.6613442303253</v>
+        <v>299.661344230325</v>
       </c>
       <c r="M6" t="n">
-        <v>638.1159212976685</v>
+        <v>513.992934270117</v>
       </c>
       <c r="N6" t="n">
-        <v>852.4475113374613</v>
+        <v>852.4475113374597</v>
       </c>
       <c r="O6" t="n">
-        <v>1147.605777858207</v>
+        <v>1147.605777858205</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="T6" t="n">
-        <v>1166.108753932801</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="U6" t="n">
-        <v>937.89822774587</v>
+        <v>1273.781014466804</v>
       </c>
       <c r="V6" t="n">
-        <v>702.7461195141273</v>
+        <v>1038.628906235061</v>
       </c>
       <c r="W6" t="n">
-        <v>448.5087627859256</v>
+        <v>784.3915495068593</v>
       </c>
       <c r="X6" t="n">
-        <v>240.6572625803928</v>
+        <v>576.5400493013265</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.89696381543888</v>
+        <v>368.7797505363726</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="C7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="D7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="E7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="F7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="G7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="H7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="I7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953545</v>
+        <v>78.97414292953529</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394789</v>
+        <v>143.7938290394786</v>
       </c>
       <c r="N7" t="n">
-        <v>212.506864314703</v>
+        <v>212.5068643147026</v>
       </c>
       <c r="O7" t="n">
-        <v>259.958178403916</v>
+        <v>259.9581784039154</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="V7" t="n">
-        <v>27.34986481352269</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="W7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="X7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1117.513150920515</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1117.513150920515</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.513150920515</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1117.513150920515</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y8" t="n">
-        <v>1117.513150920515</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>418.6523285934727</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.8933943850828</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C13" t="n">
-        <v>444.8933943850828</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>294.7767549727471</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>294.7767549727471</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>147.8868074748367</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>147.8868074748367</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1357.244377533219</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.458962322725</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>844.330323536283</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655736</v>
+        <v>844.3303235362831</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>844.3303235362831</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850828</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.2471179313758</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C16" t="n">
-        <v>705.2471179313758</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D16" t="n">
-        <v>705.2471179313758</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293931</v>
+        <v>770.4276918906634</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2471179313758</v>
+        <v>542.438140992646</v>
       </c>
       <c r="Y16" t="n">
-        <v>705.2471179313758</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5598,19 +5598,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.5778825909697</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>359.1696912903948</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3794404708856</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344998</v>
+        <v>579.9622704339249</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617344998</v>
+        <v>579.9622704339249</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.5778825909697</v>
+        <v>359.1696912903948</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5941,19 +5941,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550788</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6014,10 +6014,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.1878156613375</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>108.1878156613375</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>108.1878156613375</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>108.1878156613375</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
         <v>562.148457242208</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968147</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6163,34 +6163,34 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057294</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949932</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572809</v>
+        <v>1100.289981029599</v>
       </c>
       <c r="V25" t="n">
-        <v>751.4821361451843</v>
+        <v>864.1924479175027</v>
       </c>
       <c r="W25" t="n">
-        <v>480.651921202014</v>
+        <v>593.3622329743323</v>
       </c>
       <c r="X25" t="n">
-        <v>271.2493253977869</v>
+        <v>383.9596371701052</v>
       </c>
       <c r="Y25" t="n">
-        <v>271.2493253977869</v>
+        <v>181.7540131203654</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>474.7746905116409</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>721.5398184181049</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M27" t="n">
-        <v>1028.859951698067</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>271.2493253977866</v>
+        <v>732.4399704963522</v>
       </c>
       <c r="C28" t="n">
-        <v>271.2493253977866</v>
+        <v>732.4399704963522</v>
       </c>
       <c r="D28" t="n">
-        <v>271.2493253977866</v>
+        <v>600.9102861778067</v>
       </c>
       <c r="E28" t="n">
-        <v>225.5200838644059</v>
+        <v>471.5841476892038</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>471.5841476892038</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>321.9957811028146</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L28" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968147</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.652868057294</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066636</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="T28" t="n">
-        <v>1258.121352949932</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="U28" t="n">
-        <v>987.5796692572806</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="V28" t="n">
-        <v>751.482136145184</v>
+        <v>1316.067186600812</v>
       </c>
       <c r="W28" t="n">
-        <v>480.6519212020137</v>
+        <v>1104.904076037029</v>
       </c>
       <c r="X28" t="n">
-        <v>271.2493253977866</v>
+        <v>895.5014802328017</v>
       </c>
       <c r="Y28" t="n">
-        <v>271.2493253977866</v>
+        <v>895.5014802328017</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>271.2493253977864</v>
+        <v>508.4221421015509</v>
       </c>
       <c r="C31" t="n">
-        <v>271.2493253977864</v>
+        <v>358.0729142674343</v>
       </c>
       <c r="D31" t="n">
-        <v>271.2493253977864</v>
+        <v>226.5432299488888</v>
       </c>
       <c r="E31" t="n">
-        <v>141.9231869091836</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L31" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M31" t="n">
         <v>851.9322746968146</v>
@@ -6637,34 +6637,34 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722252</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.121352949932</v>
+        <v>1370.831664722252</v>
       </c>
       <c r="U31" t="n">
-        <v>987.5796692572803</v>
+        <v>1370.831664722252</v>
       </c>
       <c r="V31" t="n">
-        <v>751.4821361451837</v>
+        <v>1353.922086635138</v>
       </c>
       <c r="W31" t="n">
-        <v>480.6519212020135</v>
+        <v>1083.091871691968</v>
       </c>
       <c r="X31" t="n">
-        <v>271.2493253977864</v>
+        <v>873.6892758877403</v>
       </c>
       <c r="Y31" t="n">
-        <v>271.2493253977864</v>
+        <v>671.4836518380005</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,13 +6859,13 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F35" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922877</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>277.5044698732409</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>800.9073284422706</v>
+        <v>837.3997513970985</v>
       </c>
       <c r="L35" t="n">
-        <v>1502.511484486069</v>
+        <v>1125.519305035951</v>
       </c>
       <c r="M35" t="n">
-        <v>2299.787838205959</v>
+        <v>1922.795658755841</v>
       </c>
       <c r="N35" t="n">
-        <v>3095.33295930999</v>
+        <v>2718.340779859872</v>
       </c>
       <c r="O35" t="n">
         <v>3424.363840884068</v>
@@ -6974,13 +6974,13 @@
         <v>3153.206593873102</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="36">
@@ -7078,28 +7078,28 @@
         <v>456.9802240424967</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G37" t="n">
         <v>200.462134402137</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901213</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L37" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M37" t="n">
         <v>1027.79888605232</v>
@@ -7126,7 +7126,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V37" t="n">
         <v>1282.960265051241</v>
@@ -7160,13 +7160,13 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G38" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
@@ -7175,22 +7175,22 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432326</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L38" t="n">
-        <v>1156.336370582085</v>
+        <v>1239.912039114047</v>
       </c>
       <c r="M38" t="n">
-        <v>1953.612724301976</v>
+        <v>2037.188392833938</v>
       </c>
       <c r="N38" t="n">
-        <v>2749.157845406006</v>
+        <v>2399.760058770104</v>
       </c>
       <c r="O38" t="n">
-        <v>3078.188726980084</v>
+        <v>3105.7831197943</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296798</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q38" t="n">
         <v>3807.4858326055</v>
@@ -7211,13 +7211,13 @@
         <v>3153.206593873102</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X38" t="n">
         <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>653.361187648985</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>1185.651406307347</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>1492.971539587309</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499444</v>
+        <v>1822.834167251342</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.849141718141</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q39" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C40" t="n">
         <v>538.2767724147915</v>
@@ -7315,55 +7315,55 @@
         <v>456.9802240424968</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021373</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443638</v>
+        <v>155.9829803443642</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173195</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L40" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
-        <v>1365.793566308211</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V40" t="n">
         <v>1282.960265051241</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963452</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>1018.957177436855</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872886</v>
+        <v>676.7913636872888</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922877</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402803</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
@@ -7412,19 +7412,19 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432326</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L41" t="n">
-        <v>1569.820972987031</v>
+        <v>1248.917014541578</v>
       </c>
       <c r="M41" t="n">
-        <v>2367.097326706921</v>
+        <v>2046.193368261468</v>
       </c>
       <c r="N41" t="n">
-        <v>2729.668992643088</v>
+        <v>2508.148939106567</v>
       </c>
       <c r="O41" t="n">
-        <v>3058.699874217165</v>
+        <v>3214.172000130763</v>
       </c>
       <c r="P41" t="n">
         <v>3460.491244296798</v>
@@ -7488,22 +7488,22 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K42" t="n">
-        <v>266.7104780195275</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L42" t="n">
-        <v>880.6075477764161</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M42" t="n">
-        <v>1187.927681056378</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.790308720411</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.330373939108</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P42" t="n">
         <v>2307.396713252248</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424964</v>
+        <v>456.9802240424969</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001444</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422751</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
@@ -7570,10 +7570,10 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7588,7 +7588,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R43" t="n">
         <v>1975.198453178347</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C44" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E44" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872895</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922887</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I44" t="n">
         <v>76.14971665211002</v>
@@ -7658,25 +7658,25 @@
         <v>1922.078928549017</v>
       </c>
       <c r="N44" t="n">
-        <v>2284.650594485183</v>
+        <v>2717.624049653048</v>
       </c>
       <c r="O44" t="n">
-        <v>2836.364143234531</v>
+        <v>3046.654931227125</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490334</v>
+        <v>3611.554896482929</v>
       </c>
       <c r="Q44" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R44" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
         <v>3415.449390176632</v>
@@ -7691,7 +7691,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="45">
@@ -7725,10 +7725,10 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6407938174676</v>
+        <v>212.7178686028331</v>
       </c>
       <c r="K45" t="n">
-        <v>266.7104780195275</v>
+        <v>623.6081374473457</v>
       </c>
       <c r="L45" t="n">
         <v>870.3732653538098</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424968</v>
+        <v>456.980224042497</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001449</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021373</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901215</v>
@@ -7804,16 +7804,16 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443643</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173201</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567932</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
         <v>1365.793566308212</v>
@@ -7825,13 +7825,13 @@
         <v>1911.169451375981</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>195.2920992522434</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>270.0158396049239</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>108.2245426988758</v>
       </c>
       <c r="K6" t="n">
-        <v>106.0287138250085</v>
+        <v>106.0287138250086</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>434.0896122856908</v>
+        <v>308.712857712407</v>
       </c>
       <c r="N6" t="n">
-        <v>296.5993620476814</v>
+        <v>421.9761166209644</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8336753070146</v>
+        <v>114.8336753070147</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>62.79465928983115</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>101.1072328478697</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>293.0170635346656</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>408.5652797751672</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>137.3568415663419</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>5.891030169484338</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,13 +11069,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>100.3877827362955</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>157.0425514278759</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>308.1251096272034</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>224.9319870457273</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>59.72544299714619</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>98.75080951313076</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>167.6299882929596</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>115.7319267583071</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>15.37775876345586</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>143.1702428210061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>223.0186963236548</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>64.30500338172055</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>77.73934219560638</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
@@ -24373,16 +24373,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>116.1589455210378</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
         <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141958</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094039</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>82.76092798566991</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246837</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141958</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094039</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>59.07043333559336</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>82.76092798567012</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
         <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141958</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094039</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>216.9960754747332</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508237</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="F2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="G2" t="n">
-        <v>371477.6067508237</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="H2" t="n">
-        <v>371477.6067508237</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="I2" t="n">
-        <v>376478.7479932184</v>
+        <v>376478.7479932185</v>
       </c>
       <c r="J2" t="n">
-        <v>376478.7479932184</v>
+        <v>376478.7479932183</v>
       </c>
       <c r="K2" t="n">
         <v>376478.7479932184</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="O2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="P2" t="n">
         <v>389994.8406855345</v>
-      </c>
-      <c r="P2" t="n">
-        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794764</v>
+        <v>72744.75223794702</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936399</v>
+        <v>348321.8962936405</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428192</v>
+        <v>14720.86843428191</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303596</v>
+        <v>16913.40047303593</v>
       </c>
       <c r="L3" t="n">
         <v>123915.625874163</v>
@@ -26399,7 +26399,7 @@
         <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428193</v>
+        <v>14720.86843428194</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211187</v>
+        <v>296337.3092211189</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>43561.42148316556</v>
@@ -26436,28 +26436,28 @@
         <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.29565456441</v>
+        <v>49616.29565456439</v>
       </c>
       <c r="J4" t="n">
-        <v>49616.29565456438</v>
+        <v>49616.29565456439</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456441</v>
+        <v>49616.29565456437</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448602</v>
       </c>
       <c r="M4" t="n">
         <v>99837.12979766786</v>
       </c>
       <c r="N4" t="n">
+        <v>99837.12979766791</v>
+      </c>
+      <c r="O4" t="n">
+        <v>99837.12979766782</v>
+      </c>
+      <c r="P4" t="n">
         <v>99837.12979766788</v>
-      </c>
-      <c r="O4" t="n">
-        <v>99837.12979766788</v>
-      </c>
-      <c r="P4" t="n">
-        <v>99837.12979766782</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049168</v>
+        <v>56410.20653049165</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
+        <v>93534.28680921868</v>
+      </c>
+      <c r="K5" t="n">
         <v>93534.2868092187</v>
-      </c>
-      <c r="K5" t="n">
-        <v>93534.28680921868</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581174</v>
+        <v>81703.90096581176</v>
       </c>
       <c r="O5" t="n">
         <v>81703.90096581174</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104406.8487149707</v>
+        <v>-104406.8487149709</v>
       </c>
       <c r="C6" t="n">
-        <v>-35497.42730402339</v>
+        <v>-35497.42730402283</v>
       </c>
       <c r="D6" t="n">
-        <v>-233392.7300639446</v>
+        <v>-233392.7300639451</v>
       </c>
       <c r="E6" t="n">
-        <v>-289231.1771579547</v>
+        <v>-289328.6362839268</v>
       </c>
       <c r="F6" t="n">
-        <v>235928.8593189414</v>
+        <v>235831.4001929692</v>
       </c>
       <c r="G6" t="n">
-        <v>235928.8593189415</v>
+        <v>235831.4001929691</v>
       </c>
       <c r="H6" t="n">
-        <v>235928.8593189415</v>
+        <v>235831.4001929692</v>
       </c>
       <c r="I6" t="n">
-        <v>218607.2970951534</v>
+        <v>218536.159765194</v>
       </c>
       <c r="J6" t="n">
-        <v>161073.4706582962</v>
+        <v>161002.3333283366</v>
       </c>
       <c r="K6" t="n">
-        <v>216414.7650563993</v>
+        <v>216343.6277264398</v>
       </c>
       <c r="L6" t="n">
-        <v>102383.9002668604</v>
+        <v>102383.9002668602</v>
       </c>
       <c r="M6" t="n">
-        <v>139278.7205844258</v>
+        <v>139278.7205844259</v>
       </c>
       <c r="N6" t="n">
         <v>193732.9414877729</v>
       </c>
       <c r="O6" t="n">
+        <v>208453.8099220551</v>
+      </c>
+      <c r="P6" t="n">
         <v>208453.8099220548</v>
-      </c>
-      <c r="P6" t="n">
-        <v>208453.8099220551</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="J2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="K2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020381</v>
+        <v>91.59216845020337</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690336</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678825</v>
+        <v>49.73080458678827</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285241</v>
+        <v>18.40108554285243</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107852</v>
+        <v>56.57090773107804</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668828</v>
+        <v>286.1514957668833</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667813</v>
+        <v>65.71679646667758</v>
       </c>
       <c r="D4" t="n">
-        <v>332.413962585522</v>
+        <v>332.4139625855225</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667791</v>
+        <v>65.71679646667781</v>
       </c>
       <c r="L4" t="n">
-        <v>332.413962585522</v>
+        <v>332.4139625855223</v>
       </c>
       <c r="M4" t="n">
         <v>277.5841853968195</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667813</v>
+        <v>65.71679646667758</v>
       </c>
       <c r="L4" t="n">
-        <v>332.413962585522</v>
+        <v>332.4139625855225</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>130.719532039356</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>184.2890106185799</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>213.9075730461744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.1734375705298</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>14.69046657507519</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27582,7 +27582,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>14.25485536161352</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27594,7 +27594,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>91.93870002166219</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.860531494447</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>12.80973145164938</v>
+        <v>12.8097314516499</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>65.00273557267838</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>168.2852423146758</v>
+        <v>196.2804842470834</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656316</v>
+        <v>126.7395639656317</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
         <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>7.367658548379438</v>
+        <v>7.36765854837995</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>83.54361687430691</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
-        <v>104.8411185366056</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373488</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923666</v>
+        <v>87.92595927923672</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>133.1533169778266</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27795,10 +27795,10 @@
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.6819293947509</v>
+        <v>81.68192939475095</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086058</v>
+        <v>3.08018178008615</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571361</v>
+        <v>72.33162581571368</v>
       </c>
       <c r="R7" t="n">
         <v>169.866918177912</v>
@@ -27831,10 +27831,10 @@
         <v>286.3100202907417</v>
       </c>
       <c r="V7" t="n">
-        <v>4.944119571502029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>39.32947458426568</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>243.579837362576</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>24.3887627573439</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.2976195790726</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>221.4093981846921</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="C25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="D25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="E25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="F25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="G25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="H25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="I25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="J25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="K25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="L25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="M25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="N25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="P25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="R25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="S25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="T25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="U25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="V25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="W25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="X25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="C28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="D28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="E28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="F28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="G28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="H28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="I28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="J28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="K28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="L28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="M28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="N28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="P28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="R28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="S28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="T28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="U28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="V28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="W28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="X28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285233</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="C31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="D31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="E31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="F31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="G31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="H31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="I31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="M31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="N31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="P31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="R31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="S31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="T31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="U31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="V31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="W31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="X31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285234</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296419</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964153</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964192</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128794</v>
+        <v>0.3682097224128776</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660902</v>
+        <v>3.770927819660884</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332255</v>
+        <v>14.19540532332248</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764015</v>
+        <v>31.25133992764</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737734</v>
+        <v>46.83765747737711</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576967051</v>
+        <v>58.10625576967023</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063055</v>
+        <v>64.65440542063024</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443615</v>
+        <v>65.70058129443584</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719308</v>
+        <v>62.03919586719278</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512511</v>
+        <v>52.94901834512486</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121385</v>
+        <v>39.76250766121366</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551805</v>
+        <v>23.12955397551794</v>
       </c>
       <c r="S5" t="n">
-        <v>8.390579049483497</v>
+        <v>8.390579049483456</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61183805986238</v>
+        <v>1.611838059862372</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303034</v>
+        <v>0.0294567777930302</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740233</v>
+        <v>0.1970095698740223</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993857</v>
+        <v>1.902697687993848</v>
       </c>
       <c r="I6" t="n">
-        <v>6.78300492768019</v>
+        <v>6.783004927680157</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779095</v>
+        <v>18.61308396779086</v>
       </c>
       <c r="K6" t="n">
-        <v>31.81272514935051</v>
+        <v>31.81272514935036</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742774</v>
+        <v>42.77613489742753</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536107</v>
+        <v>49.91773180536083</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140223</v>
+        <v>51.23890563140198</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998308</v>
+        <v>46.87358831998285</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707532994</v>
+        <v>37.62018707532977</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900691</v>
+        <v>25.14809877900679</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340647</v>
+        <v>12.23187487340641</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703895</v>
+        <v>3.659366352703878</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7940868189220498</v>
+        <v>0.7940868189220459</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0129611559127647</v>
+        <v>0.01296115591276463</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020069</v>
+        <v>0.1651662054020061</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119662</v>
+        <v>1.468477717119655</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725808</v>
+        <v>4.966998249725784</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192188</v>
+        <v>11.67725072192183</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579679</v>
+        <v>19.1893100457967</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040382</v>
+        <v>24.55571021040371</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224367</v>
+        <v>25.89055345224355</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938167</v>
+        <v>25.27493395938155</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809458</v>
+        <v>23.34549237809447</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789362</v>
+        <v>19.97610178789353</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598078</v>
+        <v>13.83041743598071</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257507</v>
+        <v>7.426473199257471</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869519</v>
+        <v>2.878396506869505</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540292</v>
+        <v>0.7057101503540257</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200384</v>
+        <v>0.009009065749200341</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>73.09363939595693</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>158.2658797799247</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302763</v>
+        <v>19.30205057302748</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035615</v>
+        <v>150.8932190035613</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501337</v>
+        <v>240.0010553501334</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861903</v>
+        <v>283.82170568619</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098294</v>
+        <v>273.6344421098291</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082517</v>
+        <v>212.7411657082514</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613382</v>
+        <v>143.5147307613379</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666905</v>
+        <v>29.77180844666886</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210127</v>
+        <v>275.0621004210125</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690336</v>
+        <v>216.4965555957494</v>
       </c>
       <c r="N6" t="n">
-        <v>216.4965555957503</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522682</v>
+        <v>298.1396631522679</v>
       </c>
       <c r="P6" t="n">
-        <v>222.1085483009369</v>
+        <v>222.1085483009367</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547071996</v>
+        <v>52.14573547071984</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408425</v>
+        <v>65.47443041408414</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861026</v>
+        <v>69.40710633861013</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213425</v>
+        <v>47.93062029213414</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278711</v>
+        <v>17.25466105278701</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35966,22 +35966,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841786</v>
       </c>
       <c r="K25" t="n">
-        <v>170.103514072763</v>
+        <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
         <v>268.6152724227809</v>
@@ -36528,13 +36528,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P25" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472716</v>
+        <v>57.62678551472709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3700978777704</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841786</v>
       </c>
       <c r="K28" t="n">
-        <v>170.103514072763</v>
+        <v>170.1035140727629</v>
       </c>
       <c r="L28" t="n">
         <v>268.6152724227809</v>
@@ -36765,13 +36765,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P28" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472716</v>
+        <v>57.62678551472709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K31" t="n">
-        <v>170.103514072763</v>
+        <v>170.1035140727629</v>
       </c>
       <c r="L31" t="n">
         <v>268.6152724227809</v>
@@ -37002,13 +37002,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P31" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472716</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37166,7 +37166,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>203.3886396173039</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>497.5614070938339</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>248.8073173394297</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,25 +37543,25 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>699.595131935624</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>386.1641589057716</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37716,10 +37716,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37789,13 +37789,13 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>366.2340059961277</v>
+        <v>466.6217887324232</v>
       </c>
       <c r="O41" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>405.8498687673056</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>515.2185245587281</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38026,19 +38026,19 @@
         <v>355.8161167292792</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>557.2864128781291</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>197.9100364874463</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
